--- a/test/data/25peptides_5perpool_3x_pool-id_readout.xlsx
+++ b/test/data/25peptides_5perpool_3x_pool-id_readout.xlsx
@@ -1,31 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leework/Documents/Research/projects/project_ace/ace/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E27E23-0F26-B04A-A8E1-AE6FA0CFB2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33ECBD-DA21-664F-AE00-B362A5E7F305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>pool_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>spot_count</t>
+  </si>
+  <si>
+    <t>plate_id</t>
+  </si>
+  <si>
+    <t>well_id</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
@@ -866,139 +917,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
